--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5870D2-9A5D-FF45-B284-8642C6C5C25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD0D2CA-A610-CC4D-B391-6E6FF7D7CF94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>所属进程</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -135,6 +129,10 @@
   </si>
   <si>
     <t>Router04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +560,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -577,22 +575,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -601,34 +599,34 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -739,26 +737,14 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="G9" s="4"/>
     </row>
   </sheetData>
@@ -788,22 +774,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -811,25 +797,25 @@
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -839,10 +825,10 @@
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -877,10 +863,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1010,22 +996,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1033,33 +1019,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1088,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4">
         <v>10300</v>
@@ -1108,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4">
         <v>10301</v>
@@ -1128,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="4">
         <v>10302</v>
@@ -1148,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4">
         <v>10303</v>
@@ -1168,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4">
         <v>10304</v>
